--- a/biology/Zoologie/Acomys_cilicicus/Acomys_cilicicus.xlsx
+++ b/biology/Zoologie/Acomys_cilicicus/Acomys_cilicicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acomys cilicicus est un petit rongeur du genre Acomys et de la famille des muridés en danger critique d'extinction. Les anglophones le nomment Asia Minor spiny mouse (souris épineuse d'Asie mineure).
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une souris terrestre de Turquie, habitant les forêts tempérées[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une souris terrestre de Turquie, habitant les forêts tempérées.
 </t>
         </is>
       </c>
